--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_0.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_0.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30741348.95742296</v>
+        <v>30774582.07306357</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21047313.62667426</v>
+        <v>21080546.74231488</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>423586.0174449806</v>
+        <v>419307.9612903837</v>
       </c>
     </row>
     <row r="11">
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,7 +8060,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>20.964654452712</v>
@@ -8143,19 +8145,19 @@
         <v>21.91875989570122</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
@@ -8304,16 +8306,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>21.91875989570122</v>
@@ -8386,7 +8388,7 @@
         <v>20.74890097560039</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
         <v>22.38080065798648</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
@@ -8471,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8547,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>21.91875989570122</v>
@@ -8623,7 +8625,7 @@
         <v>20.74890097560039</v>
       </c>
       <c r="O10" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>22.38080065798648</v>
@@ -8690,13 +8692,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
@@ -8708,10 +8710,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,19 +8777,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8848,10 +8850,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>21.91875989570122</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8866,7 +8868,7 @@
         <v>22.38080065798648</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8930,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
@@ -8948,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>20.964654452712</v>
@@ -9094,16 +9096,16 @@
         <v>22.57543989148582</v>
       </c>
       <c r="N16" t="n">
-        <v>20.74890097560039</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,10 +9184,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>20.964654452712</v>
       </c>
       <c r="L19" t="n">
-        <v>21.91875989570122</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>22.57543989148582</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>22.38080065798648</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,7 +9412,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9562,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>21.91875989570122</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>22.57543989148582</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>20.74890097560039</v>
@@ -9574,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>22.38080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>21.91875989570122</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>22.57543989148582</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>20.74890097560039</v>
@@ -9811,10 +9813,10 @@
         <v>22.49918749842445</v>
       </c>
       <c r="P25" t="n">
-        <v>22.38080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>37.43126289943181</v>
@@ -9887,7 +9889,7 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>21.91875989570122</v>
@@ -10045,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>22.38080065798648</v>
@@ -10115,13 +10117,13 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,10 +10132,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10197,16 +10199,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K31" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M31" t="n">
         <v>22.57543989148582</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O31" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>22.38080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10352,25 +10354,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10510,22 +10512,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10667,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10744,22 +10746,22 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L37" t="n">
         <v>21.91875989570122</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N37" t="n">
-        <v>20.74890097560039</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P37" t="n">
-        <v>22.38080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>24.61956276478495</v>
@@ -10823,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>37.27962283444602</v>
@@ -10841,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10899,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10990,10 +10992,10 @@
         <v>22.57543989148582</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O40" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>22.38080065798648</v>
@@ -11063,13 +11065,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
@@ -11078,7 +11080,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>20.964654452712</v>
@@ -11227,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O43" t="n">
         <v>22.49918749842445</v>
@@ -11236,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>20.964654452712</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22568,31 +22570,31 @@
         <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>103.323621185591</v>
@@ -22650,7 +22652,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -22659,19 +22661,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>80.51100496435802</v>
@@ -22726,7 +22728,7 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22735,19 +22737,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>22.57543989148582</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>20.74890097560039</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>46.56822717969858</v>
@@ -22805,10 +22807,10 @@
         <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>103.323621185591</v>
@@ -22881,7 +22883,7 @@
         <v>52.84233230531351</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22896,16 +22898,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -22963,10 +22965,10 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22978,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -23042,19 +23044,19 @@
         <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -23063,10 +23065,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>103.323621185591</v>
@@ -23127,7 +23129,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23139,13 +23141,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>80.51100496435802</v>
@@ -23200,10 +23202,10 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23215,7 +23217,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -23282,13 +23284,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23300,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>103.323621185591</v>
@@ -23367,19 +23369,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -23440,10 +23442,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M13" t="n">
         <v>22.57543989148582</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R13" t="n">
         <v>46.56822717969858</v>
@@ -23522,7 +23524,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>103.323621185591</v>
@@ -23592,34 +23594,34 @@
         <v>52.84233230531351</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>80.51100496435802</v>
@@ -23674,7 +23676,7 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23686,16 +23688,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P16" t="n">
-        <v>22.38080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R16" t="n">
         <v>46.56822717969858</v>
@@ -23753,13 +23755,13 @@
         <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>37.43126289943181</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>103.323621185591</v>
@@ -23835,28 +23837,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>80.51100496435802</v>
@@ -23911,28 +23913,28 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N19" t="n">
         <v>20.74890097560039</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>46.56822717969858</v>
@@ -23993,7 +23995,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
         <v>38.31204243262292</v>
@@ -24002,7 +24004,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>37.3909593560241</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>103.323621185591</v>
@@ -24069,7 +24071,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -24084,16 +24086,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>80.51100496435802</v>
@@ -24154,10 +24156,10 @@
         <v>20.964654452712</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -24166,10 +24168,10 @@
         <v>22.49918749842445</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>46.56822717969858</v>
@@ -24227,22 +24229,22 @@
         <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
@@ -24309,7 +24311,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -24324,13 +24326,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>80.51100496435802</v>
@@ -24385,16 +24387,16 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -24403,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>46.56822717969858</v>
@@ -24470,7 +24472,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24479,7 +24481,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
         <v>37.5753618102313</v>
@@ -24549,7 +24551,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -24561,13 +24563,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>80.51100496435802</v>
@@ -24625,7 +24627,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24637,7 +24639,7 @@
         <v>20.74890097560039</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -24707,13 +24709,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>37.3909593560241</v>
@@ -24722,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>103.323621185591</v>
@@ -24777,7 +24779,7 @@
         <v>52.84233230531351</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
@@ -24789,16 +24791,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -24859,28 +24861,28 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L31" t="n">
-        <v>21.91875989570122</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>20.74890097560039</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R31" t="n">
         <v>46.56822717969858</v>
@@ -24944,25 +24946,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>103.323621185591</v>
@@ -25017,13 +25019,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25032,16 +25034,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>80.51100496435802</v>
@@ -25102,22 +25104,22 @@
         <v>20.964654452712</v>
       </c>
       <c r="L34" t="n">
-        <v>21.91875989570122</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>22.57543989148582</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>20.74890097560039</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>22.38080065798648</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>46.56822717969858</v>
@@ -25181,7 +25183,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
@@ -25193,13 +25195,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>103.323621185591</v>
@@ -25257,13 +25259,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -25336,22 +25338,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>22.57543989148582</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O37" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -25415,13 +25417,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -25433,7 +25435,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -25491,10 +25493,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -25503,19 +25505,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>80.51100496435802</v>
@@ -25582,10 +25584,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>20.74890097560039</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -25655,13 +25657,13 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -25728,31 +25730,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>80.51100496435802</v>
@@ -25807,7 +25809,7 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25819,7 +25821,7 @@
         <v>22.57543989148582</v>
       </c>
       <c r="N43" t="n">
-        <v>20.74890097560039</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>22.38080065798648</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R43" t="n">
         <v>46.56822717969858</v>
@@ -25886,13 +25888,13 @@
         <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
@@ -25901,16 +25903,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>103.323621185591</v>
@@ -25965,7 +25967,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -25980,10 +25982,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -26044,28 +26046,28 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57543989148582</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>20.74890097560039</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R46" t="n">
         <v>46.56822717969858</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26035.18665564465</v>
+        <v>46696.76229124975</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35161.90901991852</v>
+        <v>49597.2651163279</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41478.68464351249</v>
+        <v>36488.79433814609</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30087.11232185763</v>
+        <v>39141.6737074043</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53312.0364366387</v>
+        <v>38113.55439688417</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28748.14076322787</v>
+        <v>39016.77328942639</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38834.39290232173</v>
+        <v>23878.66236710215</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28481.17600931346</v>
+        <v>17640.1545725529</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>42103.7771043859</v>
+        <v>38877.11738245976</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22836.73888599816</v>
+        <v>47897.87070569001</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44544.09507226138</v>
+        <v>21872.2607731646</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>43864.87900749026</v>
+        <v>42511.81836003337</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23769.38420108186</v>
+        <v>34210.73103537884</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>43330.32259368461</v>
+        <v>36711.22223590554</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>53412.66100368262</v>
+        <v>20082.65510086343</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_0.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-103350.9187548473</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30774582.07306357</v>
+        <v>30062971.78277535</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21080546.74231488</v>
+        <v>20368936.45202664</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>419307.9612903837</v>
+        <v>794667.5436904925</v>
       </c>
     </row>
     <row r="11">
@@ -7987,13 +7987,13 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8063,10 +8063,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8075,10 +8075,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>20.964654452712</v>
@@ -8148,16 +8148,16 @@
         <v>22.57543989148582</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P4" t="n">
         <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8221,10 +8221,10 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8300,22 +8300,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8376,7 +8376,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L7" t="n">
         <v>21.91875989570122</v>
@@ -8394,7 +8394,7 @@
         <v>22.38080065798648</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
@@ -8464,19 +8464,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L10" t="n">
         <v>21.91875989570122</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N10" t="n">
         <v>20.74890097560039</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P10" t="n">
         <v>22.38080065798648</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
@@ -8704,7 +8704,7 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8789,10 +8789,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,13 +8850,13 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N13" t="n">
         <v>20.74890097560039</v>
@@ -8868,7 +8868,7 @@
         <v>22.38080065798648</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
@@ -8950,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9020,7 +9020,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9029,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
         <v>20.964654452712</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M16" t="n">
         <v>22.57543989148582</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P16" t="n">
         <v>22.38080065798648</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
@@ -9187,7 +9187,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9321,22 +9321,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K19" t="n">
         <v>20.964654452712</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P19" t="n">
         <v>22.38080065798648</v>
@@ -9403,28 +9403,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9561,22 +9561,22 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N22" t="n">
         <v>20.74890097560039</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q22" t="n">
         <v>24.61956276478495</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>38.31204243262292</v>
@@ -9649,19 +9649,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,31 +9713,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9798,13 +9798,13 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N25" t="n">
         <v>20.74890097560039</v>
@@ -9813,7 +9813,7 @@
         <v>22.49918749842445</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q25" t="n">
         <v>24.61956276478495</v>
@@ -9877,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>38.31204243262292</v>
@@ -9889,10 +9889,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9953,25 +9953,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10032,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L28" t="n">
         <v>21.91875989570122</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P28" t="n">
         <v>22.38080065798648</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>35.76460079480934</v>
@@ -10126,7 +10126,7 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
         <v>37.5753618102313</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10202,16 +10202,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10272,7 +10272,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L31" t="n">
         <v>21.91875989570122</v>
@@ -10284,13 +10284,13 @@
         <v>20.74890097560039</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10439,19 +10439,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L34" t="n">
         <v>21.91875989570122</v>
@@ -10524,7 +10524,7 @@
         <v>22.49918749842445</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q34" t="n">
         <v>24.61956276478495</v>
@@ -10591,19 +10591,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10679,13 +10679,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10755,13 +10755,13 @@
         <v>22.57543989148582</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O37" t="n">
         <v>22.49918749842445</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q37" t="n">
         <v>24.61956276478495</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>35.76460079480934</v>
@@ -10831,16 +10831,16 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10898,28 +10898,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L40" t="n">
         <v>21.91875989570122</v>
@@ -10995,13 +10995,13 @@
         <v>20.74890097560039</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P40" t="n">
         <v>22.38080065798648</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
@@ -11083,7 +11083,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11147,16 +11147,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K43" t="n">
         <v>20.964654452712</v>
@@ -11226,7 +11226,7 @@
         <v>21.91875989570122</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N43" t="n">
         <v>20.74890097560039</v>
@@ -11235,10 +11235,10 @@
         <v>22.49918749842445</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,13 +11387,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K46" t="n">
         <v>20.964654452712</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M46" t="n">
         <v>22.57543989148582</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22579,13 +22579,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -22646,7 +22646,7 @@
         <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22655,10 +22655,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -22667,10 +22667,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -22728,7 +22728,7 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22740,16 +22740,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>20.74890097560039</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>46.56822717969858</v>
@@ -22813,10 +22813,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -22892,22 +22892,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -22968,7 +22968,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>46.56822717969858</v>
@@ -23044,7 +23044,7 @@
         <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23056,19 +23056,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>103.323621185591</v>
@@ -23123,31 +23123,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>80.51100496435802</v>
@@ -23202,28 +23202,28 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>22.57543989148582</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>46.56822717969858</v>
@@ -23281,13 +23281,13 @@
         <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,7 +23296,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23357,10 +23357,10 @@
         <v>52.84233230531351</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>80.51100496435802</v>
@@ -23442,13 +23442,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>21.91875989570122</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>22.57543989148582</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>46.56822717969858</v>
@@ -23518,13 +23518,13 @@
         <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>103.323621185591</v>
@@ -23597,13 +23597,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23612,7 +23612,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>80.51100496435802</v>
@@ -23676,28 +23676,28 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>21.91875989570122</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>20.74890097560039</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>46.56822717969858</v>
@@ -23764,13 +23764,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>103.323621185591</v>
@@ -23834,28 +23834,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -23913,22 +23913,22 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>21.91875989570122</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>22.57543989148582</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>20.74890097560039</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -23995,28 +23995,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>103.323621185591</v>
@@ -24068,22 +24068,22 @@
         <v>52.84233230531351</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -24153,22 +24153,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>21.91875989570122</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>22.57543989148582</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>22.38080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -24229,10 +24229,10 @@
         <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24241,19 +24241,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>103.323621185591</v>
@@ -24305,31 +24305,31 @@
         <v>52.84233230531351</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -24390,13 +24390,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>21.91875989570122</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>22.57543989148582</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>22.38080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -24469,7 +24469,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24481,10 +24481,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -24545,25 +24545,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24624,22 +24624,22 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>22.57543989148582</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>20.74890097560039</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -24703,7 +24703,7 @@
         <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24718,7 +24718,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -24779,10 +24779,10 @@
         <v>52.84233230531351</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24794,16 +24794,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -24864,7 +24864,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24876,13 +24876,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>22.38080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>46.56822717969858</v>
@@ -24943,28 +24943,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>103.323621185591</v>
@@ -25019,7 +25019,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25031,19 +25031,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>80.51100496435802</v>
@@ -25098,10 +25098,10 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25116,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>22.38080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -25183,19 +25183,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25271,13 +25271,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -25347,13 +25347,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>20.74890097560039</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>22.38080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -25414,7 +25414,7 @@
         <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25423,16 +25423,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -25490,28 +25490,28 @@
         <v>52.84233230531351</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -25572,10 +25572,10 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>20.964654452712</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25587,13 +25587,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>46.56822717969858</v>
@@ -25654,16 +25654,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>103.323621185591</v>
@@ -25727,7 +25727,7 @@
         <v>52.84233230531351</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25739,16 +25739,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25818,7 +25818,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>22.57543989148582</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -25827,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>22.38080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>46.56822717969858</v>
@@ -25888,31 +25888,31 @@
         <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>103.323621185591</v>
@@ -25967,10 +25967,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25979,13 +25979,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -26046,28 +26046,28 @@
         <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>20.74890097560039</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>46.56822717969858</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>46696.76229124975</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>49597.2651163279</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36488.79433814609</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39141.6737074043</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38113.55439688417</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39016.77328942639</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23878.66236710215</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17640.1545725529</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38877.11738245976</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>47897.87070569001</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21872.2607731646</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>42511.81836003337</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>34210.73103537884</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>36711.22223590554</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20082.65510086343</v>
+        <v>68724.30125828975</v>
       </c>
     </row>
   </sheetData>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34985.52909680178</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34985.52909680178</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34985.52909680178</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1357.929096801779</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1357.929096801779</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1357.929096801779</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-1357.929096801779</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-1357.929096801779</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-1357.929096801779</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-1357.929096801779</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-1357.929096801779</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-1357.929096801779</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-1357.929096801779</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-1357.929096801779</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-1357.929096801779</v>
       </c>
     </row>
   </sheetData>
